--- a/Infra/Azure Lab.xlsx
+++ b/Infra/Azure Lab.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leejolley/Desktop/AzureLab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leejolley/Desktop/AzureLab/Infra/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6E6F7EA3-FF66-7143-8580-2F410E5F2820}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{39817B39-053B-9342-AC4B-02EB398414DB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4720" yWindow="4160" windowWidth="32360" windowHeight="18420" activeTab="1" xr2:uid="{3993DB71-EDE7-834C-BAC2-EF7DF49B39F9}"/>
+    <workbookView xWindow="4720" yWindow="4160" windowWidth="32360" windowHeight="18420" activeTab="2" xr2:uid="{3993DB71-EDE7-834C-BAC2-EF7DF49B39F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Virtual Machines" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="297">
   <si>
     <t>Domain Controller</t>
   </si>
@@ -929,6 +929,9 @@
   </si>
   <si>
     <t>Member Server</t>
+  </si>
+  <si>
+    <t>ttplab1vmstorecsu1</t>
   </si>
 </sst>
 </file>
@@ -1304,6 +1307,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1340,8 +1345,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -2405,7 +2408,7 @@
       <c r="A9" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="80" t="s">
         <v>295</v>
       </c>
       <c r="C9" s="67" t="s">
@@ -2871,7 +2874,7 @@
       <c r="A15" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="92" t="s">
+      <c r="B15" s="80" t="s">
         <v>294</v>
       </c>
       <c r="C15" s="67"/>
@@ -3479,7 +3482,7 @@
       <c r="A23" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="93" t="s">
+      <c r="B23" s="81" t="s">
         <v>294</v>
       </c>
       <c r="C23" s="43"/>
@@ -4154,28 +4157,28 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="82"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="84"/>
     </row>
     <row r="4" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="85"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="87"/>
     </row>
     <row r="5" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
@@ -4308,16 +4311,16 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="88"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="90"/>
     </row>
     <row r="11" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
@@ -4433,28 +4436,28 @@
       <c r="G15" s="21"/>
     </row>
     <row r="16" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="82"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="84"/>
     </row>
     <row r="17" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="89" t="s">
+      <c r="A17" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="91"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="93"/>
     </row>
     <row r="18" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
@@ -4587,16 +4590,16 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="89" t="s">
+      <c r="A23" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="90"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="91"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="93"/>
     </row>
     <row r="24" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
@@ -4703,28 +4706,28 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="80" t="s">
+      <c r="A29" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="81"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="82"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="84"/>
     </row>
     <row r="30" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="89" t="s">
+      <c r="A30" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="B30" s="90"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="91"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="93"/>
     </row>
     <row r="31" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
@@ -4857,16 +4860,16 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="89" t="s">
+      <c r="A36" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="B36" s="90"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="90"/>
-      <c r="E36" s="90"/>
-      <c r="F36" s="90"/>
-      <c r="G36" s="90"/>
-      <c r="H36" s="91"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="92"/>
+      <c r="H36" s="93"/>
     </row>
     <row r="37" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
@@ -4973,28 +4976,28 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="80" t="s">
+      <c r="A42" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="B42" s="81"/>
-      <c r="C42" s="81"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="81"/>
-      <c r="H42" s="82"/>
+      <c r="B42" s="83"/>
+      <c r="C42" s="83"/>
+      <c r="D42" s="83"/>
+      <c r="E42" s="83"/>
+      <c r="F42" s="83"/>
+      <c r="G42" s="83"/>
+      <c r="H42" s="84"/>
     </row>
     <row r="43" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="89" t="s">
+      <c r="A43" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="90"/>
-      <c r="C43" s="90"/>
-      <c r="D43" s="90"/>
-      <c r="E43" s="90"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="90"/>
-      <c r="H43" s="91"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="92"/>
+      <c r="G43" s="92"/>
+      <c r="H43" s="93"/>
     </row>
     <row r="44" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="s">
@@ -5127,16 +5130,16 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="89" t="s">
+      <c r="A49" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="B49" s="90"/>
-      <c r="C49" s="90"/>
-      <c r="D49" s="90"/>
-      <c r="E49" s="90"/>
-      <c r="F49" s="90"/>
-      <c r="G49" s="90"/>
-      <c r="H49" s="91"/>
+      <c r="B49" s="92"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="92"/>
+      <c r="E49" s="92"/>
+      <c r="F49" s="92"/>
+      <c r="G49" s="92"/>
+      <c r="H49" s="93"/>
     </row>
     <row r="50" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="s">
@@ -5243,28 +5246,28 @@
       </c>
     </row>
     <row r="55" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="80" t="s">
+      <c r="A55" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="B55" s="81"/>
-      <c r="C55" s="81"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="81"/>
-      <c r="F55" s="81"/>
-      <c r="G55" s="81"/>
-      <c r="H55" s="82"/>
+      <c r="B55" s="83"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="83"/>
+      <c r="E55" s="83"/>
+      <c r="F55" s="83"/>
+      <c r="G55" s="83"/>
+      <c r="H55" s="84"/>
     </row>
     <row r="56" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="89" t="s">
+      <c r="A56" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="B56" s="90"/>
-      <c r="C56" s="90"/>
-      <c r="D56" s="90"/>
-      <c r="E56" s="90"/>
-      <c r="F56" s="90"/>
-      <c r="G56" s="90"/>
-      <c r="H56" s="91"/>
+      <c r="B56" s="92"/>
+      <c r="C56" s="92"/>
+      <c r="D56" s="92"/>
+      <c r="E56" s="92"/>
+      <c r="F56" s="92"/>
+      <c r="G56" s="92"/>
+      <c r="H56" s="93"/>
     </row>
     <row r="57" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="23" t="s">
@@ -5397,16 +5400,16 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="89" t="s">
+      <c r="A62" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="B62" s="90"/>
-      <c r="C62" s="90"/>
-      <c r="D62" s="90"/>
-      <c r="E62" s="90"/>
-      <c r="F62" s="90"/>
-      <c r="G62" s="90"/>
-      <c r="H62" s="91"/>
+      <c r="B62" s="92"/>
+      <c r="C62" s="92"/>
+      <c r="D62" s="92"/>
+      <c r="E62" s="92"/>
+      <c r="F62" s="92"/>
+      <c r="G62" s="92"/>
+      <c r="H62" s="93"/>
     </row>
     <row r="63" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="23" t="s">
@@ -5802,7 +5805,7 @@
   </sheetPr>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+    <sheetView showZeros="0" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
@@ -7156,8 +7159,8 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7190,7 +7193,7 @@
         <v>242</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>180</v>
+        <v>296</v>
       </c>
       <c r="D2" s="65" t="s">
         <v>113</v>
